--- a/evaluation/results/hybrid/autoencoder/one_svm/split_5/test_50_50/evaluation_metrics.xlsx
+++ b/evaluation/results/hybrid/autoencoder/one_svm/split_5/test_50_50/evaluation_metrics.xlsx
@@ -500,37 +500,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.4925093632958801</v>
+        <v>0.7509363295880149</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.7463235294117647</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.7602996254681648</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.7532467532467533</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.7574626865671642</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.7597524111127105</v>
       </c>
       <c r="H2">
-        <v>0.4925093632958801</v>
+        <v>0.7959187251890193</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>406</v>
       </c>
       <c r="J2">
-        <v>8</v>
+        <v>138</v>
       </c>
       <c r="K2">
-        <v>526</v>
+        <v>396</v>
       </c>
       <c r="L2">
-        <v>534</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -565,13 +565,13 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.4962264150943396</v>
+        <v>0.7557251908396947</v>
       </c>
       <c r="C2">
-        <v>0.9850187265917603</v>
+        <v>0.7415730337078652</v>
       </c>
       <c r="D2">
-        <v>0.6599749058971142</v>
+        <v>0.7485822306238186</v>
       </c>
       <c r="E2">
         <v>534</v>
@@ -582,13 +582,13 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.7463235294117647</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.7602996254681648</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.7532467532467533</v>
       </c>
       <c r="E3">
         <v>534</v>
@@ -599,16 +599,16 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.4925093632958801</v>
+        <v>0.7509363295880149</v>
       </c>
       <c r="C4">
-        <v>0.4925093632958801</v>
+        <v>0.7509363295880149</v>
       </c>
       <c r="D4">
-        <v>0.4925093632958801</v>
+        <v>0.7509363295880149</v>
       </c>
       <c r="E4">
-        <v>0.4925093632958801</v>
+        <v>0.7509363295880149</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -616,13 +616,13 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>0.2481132075471698</v>
+        <v>0.7510243601257297</v>
       </c>
       <c r="C5">
-        <v>0.4925093632958801</v>
+        <v>0.7509363295880149</v>
       </c>
       <c r="D5">
-        <v>0.3299874529485571</v>
+        <v>0.7509144919352859</v>
       </c>
       <c r="E5">
         <v>1068</v>
@@ -633,13 +633,13 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>0.2481132075471698</v>
+        <v>0.7510243601257297</v>
       </c>
       <c r="C6">
-        <v>0.4925093632958801</v>
+        <v>0.7509363295880149</v>
       </c>
       <c r="D6">
-        <v>0.3299874529485571</v>
+        <v>0.7509144919352858</v>
       </c>
       <c r="E6">
         <v>1068</v>
@@ -671,10 +671,10 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>526</v>
+        <v>396</v>
       </c>
       <c r="C2">
-        <v>8</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -682,10 +682,10 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>534</v>
+        <v>128</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>406</v>
       </c>
     </row>
   </sheetData>
